--- a/results/I3_N5_M3_T30_C150_DepLowerLeft_s2_P3_res.xlsx
+++ b/results/I3_N5_M3_T30_C150_DepLowerLeft_s2_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>696.5570033872577</v>
+        <v>1790.346691298721</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006999969482421875</v>
+        <v>0.0009999275207519531</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48.28700338725341</v>
+        <v>27.21363927694955</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.32314874444808</v>
+        <v>14.93190549991144</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.32314874444808</v>
+        <v>12.06495752168237</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>176.1400000000042</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>472.13</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17.93504247831764</v>
+        <v>12.28173377703811</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.6086347173128</v>
+        <v>11.61690297149432</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.132299474826759</v>
+        <v>26.86770052517324</v>
       </c>
     </row>
     <row r="6">
@@ -953,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>23.87457506839733</v>
       </c>
     </row>
     <row r="7">
@@ -961,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19.67685125555192</v>
+        <v>10.32314874444808</v>
       </c>
     </row>
     <row r="8">
@@ -977,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -999,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,10 +1031,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1045,10 +1045,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1059,10 +1059,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1073,10 +1073,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1087,15 +1087,155 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
         <v>6</v>
       </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>145.4200000000004</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8">
@@ -1209,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>136.0750000000004</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
@@ -1220,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>140.1850000000005</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
@@ -1231,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>139.9550000000004</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11">
@@ -1242,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>141.3200000000004</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12">
@@ -1253,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>104.4450000000006</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -1264,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>101.6750000000006</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -1275,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>103.7150000000006</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
@@ -1286,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>104.5350000000006</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -1297,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>101.85</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17">
@@ -1308,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>32.91499999999935</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18">
@@ -1319,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>33.31999999999935</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19">
@@ -1330,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>26.77999999999935</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20">
@@ -1341,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>36.18499999999935</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21">
@@ -1352,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.9</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22">
@@ -1363,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>126.3049999999997</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23">
@@ -1374,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>126.7949999999997</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24">
@@ -1385,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>118.0599999999997</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25">
@@ -1396,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>128</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26">
@@ -1407,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>129.4749999999997</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27">
@@ -1418,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>172.9250000000004</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -1429,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>168.2700000000004</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -1440,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>155.9850000000004</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
@@ -1451,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>167.6550000000004</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1462,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>173.2350000000004</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1473,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>172.9250000000004</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33">
@@ -1484,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>168.2700000000004</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34">
@@ -1495,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>155.9850000000004</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35">
@@ -1506,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>167.6550000000004</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36">
@@ -1517,7 +1657,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>173.2350000000004</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37">
@@ -1528,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>145.4200000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1539,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>136.0750000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1550,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>140.1850000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1561,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>139.9550000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>141.3200000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1674,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>22.92500000000044</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3">
@@ -1685,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>18.27000000000041</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4">
@@ -1696,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>5.98500000000044</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5">
@@ -1707,7 +1847,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>17.65500000000043</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6">
@@ -1718,7 +1858,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>23.23500000000041</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7">
@@ -1875,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1886,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.635</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1897,7 +2037,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.825</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1908,7 +2048,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.09</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1919,7 +2059,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1930,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1941,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1952,7 +2092,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1963,7 +2103,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1974,7 +2114,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.07</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1985,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>8.255000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1996,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>13.395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2007,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>11.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2018,7 +2158,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>11.465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2029,7 +2169,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>9.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2040,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>12.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2051,7 +2191,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>19.015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2062,7 +2202,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>11.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2073,7 +2213,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>18.235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2084,7 +2224,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>14.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2095,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5.615</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2106,7 +2246,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2.875</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2117,7 +2257,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2128,7 +2268,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2139,7 +2279,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>7.04</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2153,7 +2293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2180,7 +2320,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2191,7 +2331,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2202,7 +2342,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2213,7 +2353,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2224,12 +2364,122 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
